--- a/TestData/Web_POS/Staging/Exchange/exchange_test_data.xlsx
+++ b/TestData/Web_POS/Staging/Exchange/exchange_test_data.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Exchange\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298" count="3806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TC_Id</t>
   </si>
@@ -121,13 +125,13 @@
     <t>E_01</t>
   </si>
   <si>
-    <t>4920208245IF</t>
+    <t>307260624P3E</t>
   </si>
   <si>
     <t>zwshashank.agrawal@teampureplay.com</t>
   </si>
   <si>
-    <t>492060824bp2</t>
+    <t>userone_p1</t>
   </si>
   <si>
     <t>2000 : 1</t>
@@ -334,7 +338,7 @@
     <t>E_39</t>
   </si>
   <si>
-    <t>Toyto79  : 1</t>
+    <t xml:space="preserve">Toyto79  : 1</t>
   </si>
   <si>
     <t>E_40</t>
@@ -364,26 +368,24 @@
     <t>E_45</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
+        <rFont val="JetBrains Mono"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <color rgb="FF7A7E85"/>
         <sz val="10"/>
-        <color rgb="FF7A7E85"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="0"/>
         <scheme val="none"/>
       </rPr>
       <t>8906118412556</t>
     </r>
     <r>
       <rPr>
+        <rFont val="JetBrains Mono"/>
+        <charset val="1"/>
+        <family val="3"/>
         <sz val="12"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="0"/>
+        <scheme val="none"/>
       </rPr>
       <t xml:space="preserve"> : 1</t>
     </r>
@@ -473,13 +475,13 @@
     <t>E_58</t>
   </si>
   <si>
-    <t>cash : 275, paytm : 275, </t>
+    <t xml:space="preserve">cash : 275, paytm : 275, </t>
   </si>
   <si>
     <t>E_59</t>
   </si>
   <si>
-    <t>paytm : 200, card : 0 </t>
+    <t xml:space="preserve">paytm : 200, card : 0 </t>
   </si>
   <si>
     <t>Alexa : 1</t>
@@ -647,7 +649,7 @@
     <t>E_82</t>
   </si>
   <si>
-    <t>0</t>
+    <t>307260624WoJ</t>
   </si>
   <si>
     <t>i9_store_p01</t>
@@ -695,10 +697,10 @@
     <t>E_87</t>
   </si>
   <si>
-    <t>492060824WIw</t>
-  </si>
-  <si>
-    <t>E_user4_p4</t>
+    <t>3072606248lu</t>
+  </si>
+  <si>
+    <t>userone_p4</t>
   </si>
   <si>
     <t>i9_store_p4</t>
@@ -737,10 +739,10 @@
     <t>E_95</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>E_user2_p2</t>
+    <t>307260624bYQ</t>
+  </si>
+  <si>
+    <t>userone_p2</t>
   </si>
   <si>
     <t>E_96</t>
@@ -821,10 +823,10 @@
     <t>E_118</t>
   </si>
   <si>
-    <t>E_user3_p3</t>
-  </si>
-  <si>
-    <t>492060824C2j</t>
+    <t>307260624ih9</t>
+  </si>
+  <si>
+    <t>userone_p3</t>
   </si>
   <si>
     <t>E_119</t>
@@ -872,7 +874,7 @@
     <t>E_131</t>
   </si>
   <si>
-    <t>Return </t>
+    <t xml:space="preserve">Return </t>
   </si>
   <si>
     <t>E_132</t>
@@ -921,69 +923,62 @@
   </si>
   <si>
     <t>E_147</t>
-  </si>
-  <si>
-    <t>E_user1_p1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>admin@sunrise.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF7A7E85"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <charset val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -991,57 +986,22 @@
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF7A7E85"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-      <charset val="0"/>
-      <scheme val="none"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E7E7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1051,98 +1011,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ConditionalFormatStyle" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
-  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1390,39 +1355,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="A1:AMF148"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="75" view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" sqref="G2:H132"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="A123">
+      <selection activeCell="G2" sqref="G2:H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.542969" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.6796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.27734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.9296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.34765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.9296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="19.09765625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="31.95703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="41.0703125" style="3" customWidth="1"/>
-    <col min="13" max="14" width="28.75" style="3" customWidth="1"/>
-    <col min="15" max="17" width="19.09765625" style="3" customWidth="1"/>
-    <col min="18" max="20" width="29.45703125" style="4" customWidth="1"/>
-    <col min="21" max="24" width="12.6796875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="18.9296875" style="3" customWidth="1"/>
-    <col min="26" max="27" width="12.6796875" style="3" customWidth="1"/>
-    <col min="28" max="28" width="26.77734375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.6796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.63" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.28" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.93" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.35" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.58" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.93" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.79" style="3" customWidth="1"/>
+    <col min="8" max="9" width="19.11" style="3" customWidth="1"/>
+    <col min="10" max="11" width="31.96" style="4" customWidth="1"/>
+    <col min="12" max="12" width="41.15" style="3" customWidth="1"/>
+    <col min="13" max="14" width="28.76" style="3" customWidth="1"/>
+    <col min="15" max="17" width="19.11" style="3" customWidth="1"/>
+    <col min="18" max="20" width="29.44" style="4" customWidth="1"/>
+    <col min="21" max="24" width="12.63" style="3" customWidth="1"/>
+    <col min="25" max="25" width="18.86" style="3" customWidth="1"/>
+    <col min="26" max="27" width="12.63" style="3" customWidth="1"/>
+    <col min="28" max="28" width="26.86" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.63" style="3" customWidth="1"/>
     <col min="30" max="30" width="20" style="3" customWidth="1"/>
-    <col min="31" max="1020" width="12.6796875" style="3" customWidth="1"/>
+    <col min="31" max="1020" width="12.63" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1526,21 +1489,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F2" s="3">
         <v>123456</v>
@@ -1621,21 +1584,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F3" s="3">
         <v>123456</v>
@@ -1722,21 +1685,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F4" s="3">
         <v>123456</v>
@@ -1823,21 +1786,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F5" s="3">
         <v>123456</v>
@@ -1924,21 +1887,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="33" customHeight="1">
+    <row r="6" ht="33" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F6" s="3">
         <v>123456</v>
@@ -2025,21 +1988,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="34.8" customHeight="1">
+    <row r="7" ht="34.8" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F7" s="3">
         <v>123456</v>
@@ -2126,21 +2089,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="33.75" customHeight="1">
+    <row r="8" ht="33.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F8" s="3">
         <v>123456</v>
@@ -2227,21 +2190,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="33.75" customHeight="1">
+    <row r="9" ht="33.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F9" s="3">
         <v>123456</v>
@@ -2328,21 +2291,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="33.75" customHeight="1">
+    <row r="10" ht="33.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F10" s="3">
         <v>123456</v>
@@ -2429,21 +2392,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="33.75" customHeight="1">
+    <row r="11" ht="33.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F11" s="3">
         <v>123456</v>
@@ -2530,21 +2493,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="33.75" customHeight="1">
+    <row r="12" ht="33.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F12" s="3">
         <v>123456</v>
@@ -2631,21 +2594,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1">
+    <row r="13" ht="18" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F13" s="3">
         <v>123456</v>
@@ -2732,21 +2695,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="19.5" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F14" s="3">
         <v>123456</v>
@@ -2833,21 +2796,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="30" customHeight="1">
+    <row r="15" ht="30" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F15" s="3">
         <v>123456</v>
@@ -2934,21 +2897,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="26.25" customHeight="1">
+    <row r="16" ht="26.25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F16" s="3">
         <v>123456</v>
@@ -3035,21 +2998,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="30" customHeight="1">
+    <row r="17" ht="30" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F17" s="3">
         <v>123456</v>
@@ -3136,21 +3099,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="36">
+    <row r="18" ht="14.25">
       <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F18" s="3">
         <v>123456</v>
@@ -3234,21 +3197,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="31.5" customHeight="1">
+    <row r="19" ht="31.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D19" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F19" s="3">
         <v>123456</v>
@@ -3332,21 +3295,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="31.5" customHeight="1">
+    <row r="20" ht="31.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F20" s="3">
         <v>123456</v>
@@ -3430,21 +3393,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="31.5" customHeight="1">
+    <row r="21" ht="31.5" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D21" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F21" s="3">
         <v>123456</v>
@@ -3528,21 +3491,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="31.5" customHeight="1">
+    <row r="22" ht="31.5" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F22" s="5">
         <v>123456</v>
@@ -3629,21 +3592,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="31.5" customHeight="1">
+    <row r="23" ht="31.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D23" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F23" s="5">
         <v>123456</v>
@@ -3730,21 +3693,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="32.25" customHeight="1">
+    <row r="24" ht="32.25" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D24" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F24" s="5">
         <v>123456</v>
@@ -3831,21 +3794,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="28.5" customHeight="1">
+    <row r="25" ht="28.5" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D25" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F25" s="5">
         <v>123456</v>
@@ -3932,21 +3895,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="48">
+    <row r="26" ht="14.25">
       <c r="A26" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F26" s="5">
         <v>123456</v>
@@ -4033,21 +3996,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="48">
+    <row r="27" ht="14.25">
       <c r="A27" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F27" s="5">
         <v>123456</v>
@@ -4134,21 +4097,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="48">
+    <row r="28" ht="14.25">
       <c r="A28" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F28" s="5">
         <v>123456</v>
@@ -4235,21 +4198,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="36">
+    <row r="29" ht="14.25">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F29" s="5">
         <v>123456</v>
@@ -4336,21 +4299,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="48">
+    <row r="30" ht="14.25">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F30" s="5">
         <v>123456</v>
@@ -4437,21 +4400,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="48">
+    <row r="31" ht="14.25">
       <c r="A31" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F31" s="5">
         <v>123456</v>
@@ -4538,21 +4501,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="36">
+    <row r="32" ht="14.25">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D32" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F32" s="5">
         <v>123456</v>
@@ -4639,21 +4602,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="36">
+    <row r="33" ht="14.25">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D33" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F33" s="5">
         <v>123456</v>
@@ -4740,21 +4703,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="48">
+    <row r="34" ht="14.25">
       <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D34" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F34" s="5">
         <v>123456</v>
@@ -4841,21 +4804,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="36">
+    <row r="35" ht="14.25">
       <c r="A35" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D35" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F35" s="5">
         <v>123456</v>
@@ -4942,21 +4905,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="48">
+    <row r="36" ht="14.25">
       <c r="A36" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F36" s="5">
         <v>123456</v>
@@ -5043,21 +5006,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="48">
+    <row r="37" ht="14.25">
       <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D37" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F37" s="5">
         <v>123456</v>
@@ -5144,21 +5107,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="48">
+    <row r="38" ht="14.25">
       <c r="A38" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D38" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F38" s="5">
         <v>123456</v>
@@ -5245,21 +5208,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="48">
+    <row r="39" ht="14.25">
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D39" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F39" s="5">
         <v>123456</v>
@@ -5346,21 +5309,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="48">
+    <row r="40" ht="14.25">
       <c r="A40" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D40" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F40" s="5">
         <v>123456</v>
@@ -5447,21 +5410,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="24">
+    <row r="41" ht="14.25">
       <c r="A41" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F41" s="5">
         <v>123456</v>
@@ -5548,21 +5511,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="36">
+    <row r="42" ht="14.25">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D42" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F42" s="1">
         <v>123456</v>
@@ -5649,21 +5612,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="36">
+    <row r="43" ht="14.25">
       <c r="A43" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F43" s="1">
         <v>123456</v>
@@ -5750,21 +5713,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="36">
+    <row r="44" ht="14.25">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D44" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F44" s="1">
         <v>123456</v>
@@ -5851,21 +5814,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="36">
+    <row r="45" ht="14.25">
       <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D45" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F45" s="1">
         <v>123456</v>
@@ -5955,21 +5918,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="36">
+    <row r="46" ht="15">
       <c r="A46" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D46" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F46" s="1">
         <v>123456</v>
@@ -6056,21 +6019,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="36">
+    <row r="47" ht="14.25">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D47" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F47" s="1">
         <v>123456</v>
@@ -6157,21 +6120,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="36">
+    <row r="48" ht="15">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D48" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F48" s="1">
         <v>123456</v>
@@ -6258,21 +6221,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="67.5">
+    <row r="49" ht="28.5">
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="15">
-        <v>123456</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F49" s="15">
         <v>123456</v>
@@ -6359,21 +6322,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="36">
+    <row r="50" ht="14.25">
       <c r="A50" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D50" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F50" s="1">
         <v>123456</v>
@@ -6460,21 +6423,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="36">
+    <row r="51" ht="14.25">
       <c r="A51" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D51" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F51" s="1">
         <v>123456</v>
@@ -6561,21 +6524,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="36">
+    <row r="52" ht="14.25">
       <c r="A52" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D52" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F52" s="1">
         <v>123456</v>
@@ -6662,21 +6625,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="36">
+    <row r="53" ht="14.25">
       <c r="A53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D53" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F53" s="1">
         <v>123456</v>
@@ -6763,21 +6726,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="36">
+    <row r="54" ht="14.25">
       <c r="A54" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D54" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F54" s="1">
         <v>123456</v>
@@ -6864,21 +6827,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="36">
+    <row r="55" ht="14.25">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D55" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F55" s="1">
         <v>123456</v>
@@ -6965,21 +6928,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="24">
+    <row r="56" ht="14.25">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D56" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F56" s="1">
         <v>123456</v>
@@ -7066,21 +7029,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="36">
+    <row r="57" ht="14.25">
       <c r="A57" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D57" s="1">
-        <v>123456</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F57" s="1">
         <v>123456</v>
@@ -7167,21 +7130,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="36">
+    <row r="58" ht="14.25">
       <c r="A58" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D58" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F58" s="5">
         <v>123456</v>
@@ -7268,21 +7231,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="36">
+    <row r="59" ht="14.25">
       <c r="A59" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D59" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F59" s="5">
         <v>123456</v>
@@ -7369,21 +7332,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="24">
+    <row r="60" ht="14.25">
       <c r="A60" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="17">
+        <v>123456</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="17">
-        <v>123456</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F60" s="5">
         <v>123456</v>
@@ -7470,21 +7433,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="48">
+    <row r="61" ht="14.25">
       <c r="A61" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D61" s="15">
-        <v>123456</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F61" s="5">
         <v>123456</v>
@@ -7571,21 +7534,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="48">
+    <row r="62" ht="14.25">
       <c r="A62" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F62" s="5">
         <v>123456</v>
@@ -7672,21 +7635,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="48">
+    <row r="63" ht="14.25">
       <c r="A63" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="18">
+        <v>123456</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D63" s="18">
-        <v>123456</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F63" s="3">
         <v>123456</v>
@@ -7773,21 +7736,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="48">
+    <row r="64" ht="14.25">
       <c r="A64" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D64" s="15">
-        <v>123456</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F64" s="15">
         <v>123456</v>
@@ -7874,21 +7837,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="48">
+    <row r="65" ht="14.25">
       <c r="A65" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D65" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F65" s="3">
         <v>123456</v>
@@ -7975,21 +7938,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="36">
+    <row r="66" ht="14.25">
       <c r="A66" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D66" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F66" s="3">
         <v>123456</v>
@@ -8076,21 +8039,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="36">
+    <row r="67" ht="14.25">
       <c r="A67" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D67" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F67" s="5">
         <v>123456</v>
@@ -8177,21 +8140,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="48">
+    <row r="68" ht="14.25">
       <c r="A68" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D68" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F68" s="5">
         <v>123456</v>
@@ -8278,21 +8241,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="48">
+    <row r="69" ht="14.25">
       <c r="A69" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D69" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F69" s="5">
         <v>123456</v>
@@ -8379,21 +8342,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="48">
+    <row r="70" ht="14.25">
       <c r="A70" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D70" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F70" s="5">
         <v>123456</v>
@@ -8480,21 +8443,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="48">
+    <row r="71" ht="14.25">
       <c r="A71" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D71" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F71" s="5">
         <v>123456</v>
@@ -8581,21 +8544,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="48">
+    <row r="72" ht="14.25">
       <c r="A72" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D72" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F72" s="5">
         <v>123456</v>
@@ -8682,21 +8645,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="48">
+    <row r="73" ht="14.25">
       <c r="A73" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D73" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F73" s="5">
         <v>123456</v>
@@ -8783,21 +8746,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="48">
+    <row r="74" ht="14.25">
       <c r="A74" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D74" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F74" s="5">
         <v>123456</v>
@@ -8884,21 +8847,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="48">
+    <row r="75" ht="14.25">
       <c r="A75" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D75" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F75" s="5">
         <v>123456</v>
@@ -8985,21 +8948,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="48">
+    <row r="76" ht="14.25">
       <c r="A76" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D76" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F76" s="5">
         <v>123456</v>
@@ -9086,21 +9049,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="48">
+    <row r="77" ht="14.25">
       <c r="A77" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D77" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F77" s="5">
         <v>123456</v>
@@ -9187,21 +9150,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="48">
+    <row r="78" ht="14.25">
       <c r="A78" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D78" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F78" s="5">
         <v>123456</v>
@@ -9288,21 +9251,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="48">
+    <row r="79" ht="14.25">
       <c r="A79" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="18">
+        <v>123456</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D79" s="18">
-        <v>123456</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F79" s="3">
         <v>123456</v>
@@ -9389,21 +9352,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="48">
+    <row r="80" ht="14.25">
       <c r="A80" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D80" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F80" s="5">
         <v>123456</v>
@@ -9490,21 +9453,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="48">
+    <row r="81" ht="14.25">
       <c r="A81" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D81" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F81" s="5">
         <v>123456</v>
@@ -9591,21 +9554,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="48">
+    <row r="82" ht="14.25">
       <c r="A82" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F82" s="5">
         <v>123456</v>
@@ -9688,21 +9651,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:32" s="1" customFormat="1" ht="36">
+    <row r="83" s="1" customFormat="1" ht="14.25">
       <c r="A83" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D83" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F83" s="5">
         <v>123456</v>
@@ -9786,21 +9749,21 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:32" s="1" customFormat="1" ht="48">
+    <row r="84" s="1" customFormat="1" ht="14.25">
       <c r="A84" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D84" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F84" s="5">
         <v>123456</v>
@@ -9884,21 +9847,21 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:32" s="1" customFormat="1" ht="48">
+    <row r="85" s="1" customFormat="1" ht="14.25">
       <c r="A85" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D85" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F85" s="5">
         <v>123456</v>
@@ -9982,21 +9945,21 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:33" s="1" customFormat="1" ht="48">
+    <row r="86" s="1" customFormat="1" ht="25.5">
       <c r="A86" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D86" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F86" s="5">
         <v>123456</v>
@@ -10083,21 +10046,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:32" s="1" customFormat="1" ht="48">
+    <row r="87" s="1" customFormat="1" ht="14.25">
       <c r="A87" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D87" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F87" s="5">
         <v>123456</v>
@@ -10181,15 +10144,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="1:33" s="1" customFormat="1" ht="48">
+    <row r="88" s="1" customFormat="1" ht="14.25">
       <c r="A88" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>297</v>
+      <c r="C88" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D88" s="5">
         <v>123456</v>
@@ -10279,24 +10242,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:32">
+    <row r="89" ht="14.25">
       <c r="A89" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D89" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F89" s="1">
-        <v>123456</v>
+      <c r="F89" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>38</v>
@@ -10377,21 +10340,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="36">
+    <row r="90" ht="14.25">
       <c r="A90" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D90" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F90" s="5">
         <v>123456</v>
@@ -10475,21 +10438,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="36">
+    <row r="91" ht="14.25">
       <c r="A91" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D91" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F91" s="5">
         <v>123456</v>
@@ -10573,21 +10536,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:32" ht="36">
+    <row r="92" ht="14.25">
       <c r="A92" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D92" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F92" s="5">
         <v>123456</v>
@@ -10671,21 +10634,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="36">
+    <row r="93" ht="14.25">
       <c r="A93" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D93" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F93" s="5">
         <v>123456</v>
@@ -10772,21 +10735,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="36">
+    <row r="94" ht="14.25">
       <c r="A94" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D94" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F94" s="5">
         <v>123456</v>
@@ -10873,21 +10836,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="36">
+    <row r="95" ht="14.25">
       <c r="A95" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D95" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F95" s="5">
         <v>123456</v>
@@ -10974,15 +10937,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="36">
+    <row r="96" ht="14.25">
       <c r="A96" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>297</v>
+        <v>233</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D96" s="5">
         <v>123456</v>
@@ -11075,21 +11038,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D97" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F97" s="5">
         <v>123456</v>
@@ -11176,21 +11139,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D98" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F98" s="5">
         <v>123456</v>
@@ -11277,21 +11240,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="33" customHeight="1">
+    <row r="99" ht="33" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D99" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F99" s="5">
         <v>123456</v>
@@ -11375,21 +11338,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="34.8" customHeight="1">
+    <row r="100" ht="34.8" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D100" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F100" s="5">
         <v>123456</v>
@@ -11476,21 +11439,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="33.75" customHeight="1">
+    <row r="101" ht="33.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D101" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F101" s="5">
         <v>123456</v>
@@ -11577,21 +11540,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="33.75" customHeight="1">
+    <row r="102" ht="33.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D102" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F102" s="5">
         <v>123456</v>
@@ -11678,21 +11641,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="33.75" customHeight="1">
+    <row r="103" ht="33.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D103" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F103" s="5">
         <v>123456</v>
@@ -11779,21 +11742,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="33.75" customHeight="1">
+    <row r="104" ht="33.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D104" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F104" s="5">
         <v>123456</v>
@@ -11880,21 +11843,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="33.75" customHeight="1">
+    <row r="105" ht="33.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D105" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F105" s="5">
         <v>123456</v>
@@ -11981,21 +11944,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="18" customHeight="1">
+    <row r="106" ht="18" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D106" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F106" s="5">
         <v>123456</v>
@@ -12082,21 +12045,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="19.5" customHeight="1">
+    <row r="107" ht="19.5" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D107" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F107" s="5">
         <v>123456</v>
@@ -12183,21 +12146,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="30" customHeight="1">
+    <row r="108" ht="30" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D108" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F108" s="5">
         <v>123456</v>
@@ -12284,21 +12247,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="26.25" customHeight="1">
+    <row r="109" ht="26.25" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D109" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F109" s="5">
         <v>123456</v>
@@ -12385,21 +12348,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="30" customHeight="1">
+    <row r="110" ht="30" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D110" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F110" s="5">
         <v>123456</v>
@@ -12486,21 +12449,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:33" s="2" customFormat="1" ht="36">
+    <row r="111" s="2" customFormat="1" ht="14.25">
       <c r="A111" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D111" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="F111" s="5">
         <v>123456</v>
@@ -12587,21 +12550,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="31.5" customHeight="1">
+    <row r="112" ht="31.5" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D112" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F112" s="5">
         <v>123456</v>
@@ -12688,21 +12651,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="31.5" customHeight="1">
+    <row r="113" ht="31.5" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D113" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F113" s="5">
         <v>123456</v>
@@ -12789,21 +12752,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="31.5" customHeight="1">
+    <row r="114" ht="31.5" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D114" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F114" s="5">
         <v>123456</v>
@@ -12890,21 +12853,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="31.5" customHeight="1">
+    <row r="115" ht="31.5" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D115" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F115" s="5">
         <v>123456</v>
@@ -12991,21 +12954,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="31.5" customHeight="1">
+    <row r="116" ht="31.5" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D116" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F116" s="5">
         <v>123456</v>
@@ -13092,21 +13055,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="32.25" customHeight="1">
+    <row r="117" ht="32.25" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E117" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D117" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F117" s="5">
         <v>123456</v>
@@ -13193,21 +13156,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="28.5" customHeight="1">
+    <row r="118" ht="28.5" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D118" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F118" s="5">
         <v>123456</v>
@@ -13294,21 +13257,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:33" ht="36">
+    <row r="119" ht="14.25">
       <c r="A119" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>297</v>
+        <v>261</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D119" s="5">
         <v>123456</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F119" s="5">
         <v>123456</v>
@@ -13395,21 +13358,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="36">
+    <row r="120" ht="14.25">
       <c r="A120" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D120" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F120" s="5">
         <v>123456</v>
@@ -13496,21 +13459,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="36">
+    <row r="121" ht="14.25">
       <c r="A121" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D121" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F121" s="5">
         <v>123456</v>
@@ -13597,21 +13560,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="36">
+    <row r="122" ht="14.25">
       <c r="A122" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D122" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F122" s="5">
         <v>123456</v>
@@ -13698,21 +13661,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="36">
+    <row r="123" ht="14.25">
       <c r="A123" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D123" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F123" s="5">
         <v>123456</v>
@@ -13799,21 +13762,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="36">
+    <row r="124" ht="14.25">
       <c r="A124" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D124" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F124" s="5">
         <v>123456</v>
@@ -13900,21 +13863,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="36">
+    <row r="125" ht="14.25">
       <c r="A125" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D125" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F125" s="5">
         <v>123456</v>
@@ -14001,21 +13964,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="36">
+    <row r="126" ht="14.25">
       <c r="A126" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D126" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F126" s="5">
         <v>123456</v>
@@ -14102,21 +14065,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="36">
+    <row r="127" ht="14.25">
       <c r="A127" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D127" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F127" s="5">
         <v>123456</v>
@@ -14203,21 +14166,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="36">
+    <row r="128" ht="14.25">
       <c r="A128" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D128" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F128" s="5">
         <v>123456</v>
@@ -14304,21 +14267,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:33" ht="36">
+    <row r="129" ht="14.25">
       <c r="A129" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D129" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F129" s="5">
         <v>123456</v>
@@ -14405,21 +14368,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="36">
+    <row r="130" ht="14.25">
       <c r="A130" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D130" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F130" s="5">
         <v>123456</v>
@@ -14506,21 +14469,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="36">
+    <row r="131" ht="14.25">
       <c r="A131" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D131" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F131" s="5">
         <v>123456</v>
@@ -14607,21 +14570,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="36">
+    <row r="132" ht="14.25">
       <c r="A132" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D132" s="5">
-        <v>123456</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="F132" s="5">
         <v>123456</v>
@@ -14705,82 +14668,82 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133">
       <c r="A133" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134">
       <c r="A134" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135">
       <c r="A135" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136">
       <c r="A136" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137">
       <c r="A137" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138">
       <c r="A138" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139">
       <c r="A139" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140">
       <c r="A140" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141">
       <c r="A141" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142">
       <c r="A142" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143">
       <c r="A143" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144">
       <c r="A144" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145">
       <c r="A145" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146">
       <c r="A146" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147">
       <c r="A147" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148">
       <c r="A148" s="3" t="s">
         <v>294</v>
       </c>
@@ -14788,7 +14751,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5118055" footer="0.5118055"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
 </worksheet>
 </file>